--- a/metadata_templates/HP_AV_complex_metadata_template.xlsx
+++ b/metadata_templates/HP_AV_complex_metadata_template.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pitt-my.sharepoint.com/personal/mrbst20_pitt_edu/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelbolam/Documents/GitHub/MAD_Islandora_Metadata/islandora_metadata/metadata_templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{47251B4C-13F4-1041-98C3-C0B19C429D75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6179F935-1CC2-6745-A862-83468430B883}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="16380" windowHeight="8200" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28940" yWindow="-6880" windowWidth="29280" windowHeight="19360" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Object" sheetId="4" r:id="rId1"/>
-    <sheet name="Media Object" sheetId="5" r:id="rId2"/>
+    <sheet name="Object" sheetId="1" r:id="rId1"/>
+    <sheet name="Media Object" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
@@ -26,90 +26,96 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
-  <si>
-    <t>Source Collection</t>
-  </si>
-  <si>
-    <t>Identifier</t>
-  </si>
-  <si>
-    <t>Source ID</t>
-  </si>
-  <si>
-    <t>Title</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Date Qualifier</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Length</t>
-  </si>
-  <si>
-    <t>Type of Resource</t>
-  </si>
-  <si>
-    <t>Copyright Status</t>
-  </si>
-  <si>
-    <t>Copyright Holder</t>
-  </si>
-  <si>
-    <t>Permission Notes</t>
-  </si>
-  <si>
-    <t>Publication Status</t>
-  </si>
-  <si>
-    <t>Publisher</t>
-  </si>
-  <si>
-    <t>Restriction Status</t>
-  </si>
-  <si>
-    <t>Restriction Notes</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Name Role</t>
-  </si>
-  <si>
-    <t>Subject</t>
-  </si>
-  <si>
-    <t>Subject Location</t>
-  </si>
-  <si>
-    <t>Language</t>
-  </si>
-  <si>
-    <t>Format</t>
-  </si>
-  <si>
-    <t>Genre</t>
-  </si>
-  <si>
-    <t>Notes Release Forms</t>
-  </si>
-  <si>
-    <t>filename</t>
-  </si>
-  <si>
-    <t>parent object id</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+  <si>
+    <t>creator</t>
+  </si>
+  <si>
+    <t>genre</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>identifier</t>
   </si>
   <si>
     <t>title</t>
   </si>
   <si>
-    <t>identifier</t>
+    <t>description</t>
+  </si>
+  <si>
+    <t>normalized_date</t>
+  </si>
+  <si>
+    <t>normalized_date_qualifier</t>
+  </si>
+  <si>
+    <t>extent</t>
+  </si>
+  <si>
+    <t>copyright_status</t>
+  </si>
+  <si>
+    <t>rights_holder</t>
+  </si>
+  <si>
+    <t>publication_status</t>
+  </si>
+  <si>
+    <t>publisher</t>
+  </si>
+  <si>
+    <t>pub_place</t>
+  </si>
+  <si>
+    <t>subject</t>
+  </si>
+  <si>
+    <t>subject_location</t>
+  </si>
+  <si>
+    <t>language</t>
+  </si>
+  <si>
+    <t>format</t>
+  </si>
+  <si>
+    <t>depositor</t>
+  </si>
+  <si>
+    <t>source_collection</t>
+  </si>
+  <si>
+    <t>source_collection_id</t>
+  </si>
+  <si>
+    <t>source_identifier</t>
+  </si>
+  <si>
+    <t>subject_name</t>
+  </si>
+  <si>
+    <t>media_object_identifier</t>
+  </si>
+  <si>
+    <t>media_object_title</t>
+  </si>
+  <si>
+    <t>related_parent_item</t>
+  </si>
+  <si>
+    <t>contributor</t>
+  </si>
+  <si>
+    <t>media_object_filename</t>
+  </si>
+  <si>
+    <t>source_citation</t>
+  </si>
+  <si>
+    <t>batch</t>
   </si>
 </sst>
 </file>
@@ -125,14 +131,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -140,18 +138,22 @@
       <charset val="1"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -168,7 +170,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -191,36 +193,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -230,8 +209,33 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -615,117 +619,993 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CEF2C02-21A4-0F4C-99CD-93CC60BDD7A8}">
-  <dimension ref="A1:X1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AEA105"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" zoomScale="192" zoomScaleNormal="192" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="K1" sqref="K1"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="25.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="28.5" style="6" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="44.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.83203125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="35.83203125" style="12" customWidth="1"/>
+    <col min="7" max="7" width="15" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.33203125" style="6" customWidth="1"/>
+    <col min="23" max="23" width="15" style="5" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="18" style="5" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="26" max="807" width="9" style="5"/>
+    <col min="808" max="16384" width="9" style="11"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:26" s="10" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="3" t="s">
+      <c r="U1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="3" t="s">
+      <c r="V1" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="W1" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" s="3" t="s">
-        <v>23</v>
-      </c>
+      <c r="Y1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z1" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="J2" s="8"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="T2" s="8"/>
+      <c r="U2" s="8"/>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="J3" s="8"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="8"/>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="J4" s="8"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="8"/>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="J5" s="8"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="T5" s="8"/>
+      <c r="U5" s="8"/>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="J6" s="8"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="T6" s="8"/>
+      <c r="U6" s="8"/>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="J7" s="8"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="T7" s="8"/>
+      <c r="U7" s="8"/>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="J8" s="8"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="T8" s="8"/>
+      <c r="U8" s="8"/>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="J9" s="8"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="T9" s="8"/>
+      <c r="U9" s="8"/>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="J10" s="8"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="T10" s="8"/>
+      <c r="U10" s="8"/>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="J11" s="8"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="T11" s="8"/>
+      <c r="U11" s="8"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="J12" s="8"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="T12" s="8"/>
+      <c r="U12" s="8"/>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="J13" s="8"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="T13" s="8"/>
+      <c r="U13" s="8"/>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="J14" s="8"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="T14" s="8"/>
+      <c r="U14" s="8"/>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="J15" s="8"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="T15" s="8"/>
+      <c r="U15" s="8"/>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="J16" s="8"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="T16" s="8"/>
+      <c r="U16" s="8"/>
+    </row>
+    <row r="17" spans="10:21" x14ac:dyDescent="0.2">
+      <c r="J17" s="8"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="T17" s="8"/>
+      <c r="U17" s="8"/>
+    </row>
+    <row r="18" spans="10:21" x14ac:dyDescent="0.2">
+      <c r="J18" s="8"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="T18" s="8"/>
+      <c r="U18" s="8"/>
+    </row>
+    <row r="19" spans="10:21" x14ac:dyDescent="0.2">
+      <c r="J19" s="8"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="T19" s="8"/>
+      <c r="U19" s="8"/>
+    </row>
+    <row r="20" spans="10:21" x14ac:dyDescent="0.2">
+      <c r="J20" s="8"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="T20" s="8"/>
+      <c r="U20" s="8"/>
+    </row>
+    <row r="21" spans="10:21" x14ac:dyDescent="0.2">
+      <c r="J21" s="8"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="T21" s="8"/>
+      <c r="U21" s="8"/>
+    </row>
+    <row r="22" spans="10:21" x14ac:dyDescent="0.2">
+      <c r="J22" s="8"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="T22" s="8"/>
+      <c r="U22" s="8"/>
+    </row>
+    <row r="23" spans="10:21" x14ac:dyDescent="0.2">
+      <c r="J23" s="8"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+      <c r="T23" s="8"/>
+      <c r="U23" s="8"/>
+    </row>
+    <row r="24" spans="10:21" x14ac:dyDescent="0.2">
+      <c r="J24" s="8"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="T24" s="8"/>
+      <c r="U24" s="8"/>
+    </row>
+    <row r="25" spans="10:21" x14ac:dyDescent="0.2">
+      <c r="J25" s="8"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+      <c r="T25" s="8"/>
+      <c r="U25" s="8"/>
+    </row>
+    <row r="26" spans="10:21" x14ac:dyDescent="0.2">
+      <c r="J26" s="8"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
+      <c r="T26" s="8"/>
+      <c r="U26" s="8"/>
+    </row>
+    <row r="27" spans="10:21" x14ac:dyDescent="0.2">
+      <c r="J27" s="8"/>
+      <c r="K27" s="13"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="8"/>
+      <c r="T27" s="8"/>
+      <c r="U27" s="8"/>
+    </row>
+    <row r="28" spans="10:21" x14ac:dyDescent="0.2">
+      <c r="J28" s="8"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
+      <c r="T28" s="8"/>
+      <c r="U28" s="8"/>
+    </row>
+    <row r="29" spans="10:21" x14ac:dyDescent="0.2">
+      <c r="J29" s="8"/>
+      <c r="K29" s="13"/>
+      <c r="L29" s="8"/>
+      <c r="M29" s="8"/>
+      <c r="T29" s="8"/>
+      <c r="U29" s="8"/>
+    </row>
+    <row r="30" spans="10:21" x14ac:dyDescent="0.2">
+      <c r="J30" s="8"/>
+      <c r="K30" s="13"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="8"/>
+      <c r="T30" s="8"/>
+      <c r="U30" s="8"/>
+    </row>
+    <row r="31" spans="10:21" x14ac:dyDescent="0.2">
+      <c r="J31" s="8"/>
+      <c r="K31" s="13"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="8"/>
+      <c r="T31" s="8"/>
+      <c r="U31" s="8"/>
+    </row>
+    <row r="32" spans="10:21" x14ac:dyDescent="0.2">
+      <c r="J32" s="8"/>
+      <c r="K32" s="13"/>
+      <c r="L32" s="8"/>
+      <c r="M32" s="8"/>
+      <c r="T32" s="8"/>
+      <c r="U32" s="8"/>
+    </row>
+    <row r="33" spans="10:21" x14ac:dyDescent="0.2">
+      <c r="J33" s="8"/>
+      <c r="K33" s="13"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="8"/>
+      <c r="T33" s="8"/>
+      <c r="U33" s="8"/>
+    </row>
+    <row r="34" spans="10:21" x14ac:dyDescent="0.2">
+      <c r="J34" s="8"/>
+      <c r="K34" s="13"/>
+      <c r="L34" s="8"/>
+      <c r="M34" s="8"/>
+      <c r="T34" s="8"/>
+      <c r="U34" s="8"/>
+    </row>
+    <row r="35" spans="10:21" x14ac:dyDescent="0.2">
+      <c r="J35" s="8"/>
+      <c r="K35" s="13"/>
+      <c r="L35" s="8"/>
+      <c r="M35" s="8"/>
+      <c r="T35" s="8"/>
+      <c r="U35" s="8"/>
+    </row>
+    <row r="36" spans="10:21" x14ac:dyDescent="0.2">
+      <c r="J36" s="8"/>
+      <c r="K36" s="13"/>
+      <c r="L36" s="8"/>
+      <c r="M36" s="8"/>
+      <c r="T36" s="8"/>
+      <c r="U36" s="8"/>
+    </row>
+    <row r="37" spans="10:21" x14ac:dyDescent="0.2">
+      <c r="J37" s="8"/>
+      <c r="K37" s="13"/>
+      <c r="L37" s="8"/>
+      <c r="M37" s="8"/>
+      <c r="T37" s="8"/>
+      <c r="U37" s="8"/>
+    </row>
+    <row r="38" spans="10:21" x14ac:dyDescent="0.2">
+      <c r="J38" s="8"/>
+      <c r="K38" s="13"/>
+      <c r="L38" s="8"/>
+      <c r="M38" s="8"/>
+      <c r="T38" s="8"/>
+      <c r="U38" s="8"/>
+    </row>
+    <row r="39" spans="10:21" x14ac:dyDescent="0.2">
+      <c r="J39" s="8"/>
+      <c r="K39" s="13"/>
+      <c r="L39" s="8"/>
+      <c r="M39" s="8"/>
+      <c r="T39" s="8"/>
+      <c r="U39" s="8"/>
+    </row>
+    <row r="40" spans="10:21" x14ac:dyDescent="0.2">
+      <c r="J40" s="8"/>
+      <c r="K40" s="13"/>
+      <c r="L40" s="8"/>
+      <c r="M40" s="8"/>
+      <c r="T40" s="8"/>
+      <c r="U40" s="8"/>
+    </row>
+    <row r="41" spans="10:21" x14ac:dyDescent="0.2">
+      <c r="J41" s="8"/>
+      <c r="K41" s="13"/>
+      <c r="L41" s="8"/>
+      <c r="M41" s="8"/>
+      <c r="T41" s="8"/>
+      <c r="U41" s="8"/>
+    </row>
+    <row r="42" spans="10:21" x14ac:dyDescent="0.2">
+      <c r="J42" s="8"/>
+      <c r="K42" s="13"/>
+      <c r="L42" s="8"/>
+      <c r="M42" s="8"/>
+      <c r="T42" s="8"/>
+      <c r="U42" s="8"/>
+    </row>
+    <row r="43" spans="10:21" x14ac:dyDescent="0.2">
+      <c r="J43" s="8"/>
+      <c r="K43" s="13"/>
+      <c r="L43" s="8"/>
+      <c r="M43" s="8"/>
+      <c r="T43" s="8"/>
+      <c r="U43" s="8"/>
+    </row>
+    <row r="44" spans="10:21" x14ac:dyDescent="0.2">
+      <c r="J44" s="8"/>
+      <c r="K44" s="13"/>
+      <c r="L44" s="8"/>
+      <c r="M44" s="8"/>
+      <c r="T44" s="8"/>
+      <c r="U44" s="8"/>
+    </row>
+    <row r="45" spans="10:21" x14ac:dyDescent="0.2">
+      <c r="J45" s="8"/>
+      <c r="K45" s="13"/>
+      <c r="L45" s="8"/>
+      <c r="M45" s="8"/>
+      <c r="T45" s="8"/>
+      <c r="U45" s="8"/>
+    </row>
+    <row r="46" spans="10:21" x14ac:dyDescent="0.2">
+      <c r="J46" s="8"/>
+      <c r="K46" s="13"/>
+      <c r="L46" s="8"/>
+      <c r="M46" s="8"/>
+      <c r="T46" s="8"/>
+      <c r="U46" s="8"/>
+    </row>
+    <row r="47" spans="10:21" x14ac:dyDescent="0.2">
+      <c r="J47" s="8"/>
+      <c r="K47" s="13"/>
+      <c r="L47" s="8"/>
+      <c r="M47" s="8"/>
+      <c r="T47" s="8"/>
+      <c r="U47" s="8"/>
+    </row>
+    <row r="48" spans="10:21" x14ac:dyDescent="0.2">
+      <c r="J48" s="8"/>
+      <c r="K48" s="13"/>
+      <c r="L48" s="8"/>
+      <c r="M48" s="8"/>
+      <c r="T48" s="8"/>
+      <c r="U48" s="8"/>
+    </row>
+    <row r="49" spans="10:21" x14ac:dyDescent="0.2">
+      <c r="J49" s="8"/>
+      <c r="K49" s="13"/>
+      <c r="L49" s="8"/>
+      <c r="M49" s="8"/>
+      <c r="T49" s="8"/>
+      <c r="U49" s="8"/>
+    </row>
+    <row r="50" spans="10:21" x14ac:dyDescent="0.2">
+      <c r="J50" s="8"/>
+      <c r="K50" s="13"/>
+      <c r="L50" s="8"/>
+      <c r="M50" s="8"/>
+      <c r="T50" s="8"/>
+      <c r="U50" s="8"/>
+    </row>
+    <row r="51" spans="10:21" x14ac:dyDescent="0.2">
+      <c r="J51" s="8"/>
+      <c r="K51" s="13"/>
+      <c r="L51" s="8"/>
+      <c r="M51" s="8"/>
+      <c r="T51" s="8"/>
+      <c r="U51" s="8"/>
+    </row>
+    <row r="52" spans="10:21" x14ac:dyDescent="0.2">
+      <c r="J52" s="8"/>
+      <c r="K52" s="13"/>
+      <c r="L52" s="8"/>
+      <c r="M52" s="8"/>
+      <c r="T52" s="8"/>
+      <c r="U52" s="8"/>
+    </row>
+    <row r="53" spans="10:21" x14ac:dyDescent="0.2">
+      <c r="J53" s="8"/>
+      <c r="K53" s="13"/>
+      <c r="L53" s="8"/>
+      <c r="M53" s="8"/>
+      <c r="T53" s="8"/>
+      <c r="U53" s="8"/>
+    </row>
+    <row r="54" spans="10:21" x14ac:dyDescent="0.2">
+      <c r="J54" s="8"/>
+      <c r="K54" s="13"/>
+      <c r="L54" s="8"/>
+      <c r="M54" s="8"/>
+      <c r="T54" s="8"/>
+      <c r="U54" s="8"/>
+    </row>
+    <row r="55" spans="10:21" x14ac:dyDescent="0.2">
+      <c r="J55" s="8"/>
+      <c r="K55" s="13"/>
+      <c r="L55" s="8"/>
+      <c r="M55" s="8"/>
+      <c r="T55" s="8"/>
+      <c r="U55" s="8"/>
+    </row>
+    <row r="56" spans="10:21" x14ac:dyDescent="0.2">
+      <c r="J56" s="8"/>
+      <c r="K56" s="13"/>
+      <c r="L56" s="8"/>
+      <c r="M56" s="8"/>
+      <c r="T56" s="8"/>
+      <c r="U56" s="8"/>
+    </row>
+    <row r="57" spans="10:21" x14ac:dyDescent="0.2">
+      <c r="J57" s="8"/>
+      <c r="K57" s="13"/>
+      <c r="L57" s="8"/>
+      <c r="M57" s="8"/>
+      <c r="T57" s="8"/>
+      <c r="U57" s="8"/>
+    </row>
+    <row r="58" spans="10:21" x14ac:dyDescent="0.2">
+      <c r="J58" s="8"/>
+      <c r="K58" s="13"/>
+      <c r="L58" s="8"/>
+      <c r="M58" s="8"/>
+      <c r="T58" s="8"/>
+      <c r="U58" s="8"/>
+    </row>
+    <row r="59" spans="10:21" x14ac:dyDescent="0.2">
+      <c r="J59" s="8"/>
+      <c r="K59" s="13"/>
+      <c r="L59" s="8"/>
+      <c r="M59" s="8"/>
+      <c r="T59" s="8"/>
+      <c r="U59" s="8"/>
+    </row>
+    <row r="60" spans="10:21" x14ac:dyDescent="0.2">
+      <c r="J60" s="8"/>
+      <c r="K60" s="13"/>
+      <c r="L60" s="8"/>
+      <c r="M60" s="8"/>
+      <c r="T60" s="8"/>
+      <c r="U60" s="8"/>
+    </row>
+    <row r="61" spans="10:21" x14ac:dyDescent="0.2">
+      <c r="J61" s="8"/>
+      <c r="K61" s="13"/>
+      <c r="L61" s="8"/>
+      <c r="M61" s="8"/>
+      <c r="T61" s="8"/>
+      <c r="U61" s="8"/>
+    </row>
+    <row r="62" spans="10:21" x14ac:dyDescent="0.2">
+      <c r="J62" s="8"/>
+      <c r="K62" s="13"/>
+      <c r="L62" s="8"/>
+      <c r="M62" s="8"/>
+      <c r="T62" s="8"/>
+      <c r="U62" s="8"/>
+    </row>
+    <row r="63" spans="10:21" x14ac:dyDescent="0.2">
+      <c r="J63" s="8"/>
+      <c r="K63" s="13"/>
+      <c r="L63" s="8"/>
+      <c r="M63" s="8"/>
+      <c r="T63" s="8"/>
+      <c r="U63" s="8"/>
+    </row>
+    <row r="64" spans="10:21" x14ac:dyDescent="0.2">
+      <c r="J64" s="8"/>
+      <c r="K64" s="13"/>
+      <c r="L64" s="8"/>
+      <c r="M64" s="8"/>
+      <c r="T64" s="8"/>
+      <c r="U64" s="8"/>
+    </row>
+    <row r="65" spans="10:21" x14ac:dyDescent="0.2">
+      <c r="J65" s="8"/>
+      <c r="K65" s="13"/>
+      <c r="L65" s="8"/>
+      <c r="M65" s="8"/>
+      <c r="T65" s="8"/>
+      <c r="U65" s="8"/>
+    </row>
+    <row r="66" spans="10:21" x14ac:dyDescent="0.2">
+      <c r="J66" s="8"/>
+      <c r="K66" s="13"/>
+      <c r="L66" s="8"/>
+      <c r="M66" s="8"/>
+      <c r="T66" s="8"/>
+      <c r="U66" s="8"/>
+    </row>
+    <row r="67" spans="10:21" x14ac:dyDescent="0.2">
+      <c r="J67" s="8"/>
+      <c r="K67" s="13"/>
+      <c r="L67" s="8"/>
+      <c r="M67" s="8"/>
+      <c r="T67" s="8"/>
+      <c r="U67" s="8"/>
+    </row>
+    <row r="68" spans="10:21" x14ac:dyDescent="0.2">
+      <c r="J68" s="8"/>
+      <c r="K68" s="13"/>
+      <c r="L68" s="8"/>
+      <c r="M68" s="8"/>
+      <c r="T68" s="8"/>
+      <c r="U68" s="8"/>
+    </row>
+    <row r="69" spans="10:21" x14ac:dyDescent="0.2">
+      <c r="J69" s="8"/>
+      <c r="K69" s="13"/>
+      <c r="L69" s="8"/>
+      <c r="M69" s="8"/>
+      <c r="T69" s="8"/>
+      <c r="U69" s="8"/>
+    </row>
+    <row r="70" spans="10:21" x14ac:dyDescent="0.2">
+      <c r="J70" s="8"/>
+      <c r="K70" s="13"/>
+      <c r="L70" s="8"/>
+      <c r="M70" s="8"/>
+      <c r="T70" s="8"/>
+      <c r="U70" s="8"/>
+    </row>
+    <row r="71" spans="10:21" x14ac:dyDescent="0.2">
+      <c r="J71" s="8"/>
+      <c r="K71" s="13"/>
+      <c r="L71" s="8"/>
+      <c r="M71" s="8"/>
+      <c r="T71" s="8"/>
+      <c r="U71" s="8"/>
+    </row>
+    <row r="72" spans="10:21" x14ac:dyDescent="0.2">
+      <c r="J72" s="8"/>
+      <c r="K72" s="13"/>
+      <c r="L72" s="8"/>
+      <c r="M72" s="8"/>
+      <c r="T72" s="8"/>
+      <c r="U72" s="8"/>
+    </row>
+    <row r="73" spans="10:21" x14ac:dyDescent="0.2">
+      <c r="J73" s="8"/>
+      <c r="K73" s="13"/>
+      <c r="L73" s="8"/>
+      <c r="M73" s="8"/>
+      <c r="T73" s="8"/>
+      <c r="U73" s="8"/>
+    </row>
+    <row r="74" spans="10:21" x14ac:dyDescent="0.2">
+      <c r="J74" s="8"/>
+      <c r="K74" s="13"/>
+      <c r="L74" s="8"/>
+      <c r="M74" s="8"/>
+      <c r="T74" s="8"/>
+      <c r="U74" s="8"/>
+    </row>
+    <row r="75" spans="10:21" x14ac:dyDescent="0.2">
+      <c r="J75" s="8"/>
+      <c r="K75" s="13"/>
+      <c r="L75" s="8"/>
+      <c r="M75" s="8"/>
+      <c r="T75" s="8"/>
+      <c r="U75" s="8"/>
+    </row>
+    <row r="76" spans="10:21" x14ac:dyDescent="0.2">
+      <c r="J76" s="8"/>
+      <c r="K76" s="13"/>
+      <c r="L76" s="8"/>
+      <c r="M76" s="8"/>
+      <c r="T76" s="8"/>
+      <c r="U76" s="8"/>
+    </row>
+    <row r="77" spans="10:21" x14ac:dyDescent="0.2">
+      <c r="J77" s="8"/>
+      <c r="K77" s="13"/>
+      <c r="L77" s="8"/>
+      <c r="M77" s="8"/>
+      <c r="T77" s="8"/>
+      <c r="U77" s="8"/>
+    </row>
+    <row r="78" spans="10:21" x14ac:dyDescent="0.2">
+      <c r="J78" s="8"/>
+      <c r="K78" s="13"/>
+      <c r="L78" s="8"/>
+      <c r="M78" s="8"/>
+      <c r="T78" s="8"/>
+      <c r="U78" s="8"/>
+    </row>
+    <row r="79" spans="10:21" x14ac:dyDescent="0.2">
+      <c r="J79" s="8"/>
+      <c r="K79" s="13"/>
+      <c r="L79" s="8"/>
+      <c r="M79" s="8"/>
+      <c r="T79" s="8"/>
+      <c r="U79" s="8"/>
+    </row>
+    <row r="80" spans="10:21" x14ac:dyDescent="0.2">
+      <c r="J80" s="8"/>
+      <c r="K80" s="13"/>
+      <c r="L80" s="8"/>
+      <c r="M80" s="8"/>
+      <c r="T80" s="8"/>
+      <c r="U80" s="8"/>
+    </row>
+    <row r="81" spans="10:21" x14ac:dyDescent="0.2">
+      <c r="J81" s="8"/>
+      <c r="K81" s="13"/>
+      <c r="L81" s="8"/>
+      <c r="M81" s="8"/>
+      <c r="T81" s="8"/>
+      <c r="U81" s="8"/>
+    </row>
+    <row r="82" spans="10:21" x14ac:dyDescent="0.2">
+      <c r="J82" s="8"/>
+      <c r="K82" s="13"/>
+      <c r="L82" s="8"/>
+      <c r="M82" s="8"/>
+      <c r="T82" s="8"/>
+      <c r="U82" s="8"/>
+    </row>
+    <row r="83" spans="10:21" x14ac:dyDescent="0.2">
+      <c r="J83" s="8"/>
+      <c r="K83" s="13"/>
+      <c r="L83" s="8"/>
+      <c r="M83" s="8"/>
+      <c r="T83" s="8"/>
+      <c r="U83" s="8"/>
+    </row>
+    <row r="84" spans="10:21" x14ac:dyDescent="0.2">
+      <c r="J84" s="8"/>
+      <c r="K84" s="13"/>
+      <c r="L84" s="8"/>
+      <c r="M84" s="8"/>
+      <c r="T84" s="8"/>
+      <c r="U84" s="8"/>
+    </row>
+    <row r="85" spans="10:21" x14ac:dyDescent="0.2">
+      <c r="J85" s="8"/>
+      <c r="K85" s="13"/>
+      <c r="L85" s="8"/>
+      <c r="M85" s="8"/>
+      <c r="T85" s="8"/>
+      <c r="U85" s="8"/>
+    </row>
+    <row r="86" spans="10:21" x14ac:dyDescent="0.2">
+      <c r="J86" s="8"/>
+      <c r="K86" s="13"/>
+      <c r="L86" s="8"/>
+      <c r="M86" s="8"/>
+      <c r="T86" s="8"/>
+      <c r="U86" s="8"/>
+    </row>
+    <row r="87" spans="10:21" x14ac:dyDescent="0.2">
+      <c r="J87" s="8"/>
+      <c r="K87" s="13"/>
+      <c r="L87" s="8"/>
+      <c r="M87" s="8"/>
+      <c r="T87" s="8"/>
+      <c r="U87" s="8"/>
+    </row>
+    <row r="88" spans="10:21" x14ac:dyDescent="0.2">
+      <c r="J88" s="8"/>
+      <c r="K88" s="13"/>
+      <c r="L88" s="8"/>
+      <c r="M88" s="8"/>
+      <c r="T88" s="8"/>
+      <c r="U88" s="8"/>
+    </row>
+    <row r="89" spans="10:21" x14ac:dyDescent="0.2">
+      <c r="J89" s="8"/>
+      <c r="K89" s="13"/>
+      <c r="L89" s="8"/>
+      <c r="M89" s="8"/>
+      <c r="T89" s="8"/>
+      <c r="U89" s="8"/>
+    </row>
+    <row r="90" spans="10:21" x14ac:dyDescent="0.2">
+      <c r="J90" s="8"/>
+      <c r="K90" s="13"/>
+      <c r="L90" s="8"/>
+      <c r="M90" s="8"/>
+      <c r="T90" s="8"/>
+      <c r="U90" s="8"/>
+    </row>
+    <row r="91" spans="10:21" x14ac:dyDescent="0.2">
+      <c r="J91" s="8"/>
+      <c r="K91" s="13"/>
+      <c r="L91" s="8"/>
+      <c r="M91" s="8"/>
+      <c r="T91" s="8"/>
+      <c r="U91" s="8"/>
+    </row>
+    <row r="92" spans="10:21" x14ac:dyDescent="0.2">
+      <c r="J92" s="8"/>
+      <c r="K92" s="13"/>
+      <c r="L92" s="8"/>
+      <c r="M92" s="8"/>
+      <c r="T92" s="8"/>
+      <c r="U92" s="8"/>
+    </row>
+    <row r="93" spans="10:21" x14ac:dyDescent="0.2">
+      <c r="J93" s="8"/>
+      <c r="K93" s="13"/>
+      <c r="L93" s="8"/>
+      <c r="M93" s="8"/>
+      <c r="T93" s="8"/>
+      <c r="U93" s="8"/>
+    </row>
+    <row r="94" spans="10:21" x14ac:dyDescent="0.2">
+      <c r="J94" s="8"/>
+      <c r="K94" s="13"/>
+      <c r="L94" s="8"/>
+      <c r="M94" s="8"/>
+      <c r="T94" s="8"/>
+      <c r="U94" s="8"/>
+    </row>
+    <row r="95" spans="10:21" x14ac:dyDescent="0.2">
+      <c r="J95" s="8"/>
+      <c r="K95" s="13"/>
+      <c r="L95" s="8"/>
+      <c r="M95" s="8"/>
+      <c r="T95" s="8"/>
+      <c r="U95" s="8"/>
+    </row>
+    <row r="96" spans="10:21" x14ac:dyDescent="0.2">
+      <c r="J96" s="8"/>
+      <c r="K96" s="13"/>
+      <c r="L96" s="8"/>
+      <c r="M96" s="8"/>
+      <c r="T96" s="8"/>
+      <c r="U96" s="8"/>
+    </row>
+    <row r="97" spans="10:21" x14ac:dyDescent="0.2">
+      <c r="J97" s="8"/>
+      <c r="K97" s="13"/>
+      <c r="L97" s="8"/>
+      <c r="M97" s="8"/>
+      <c r="T97" s="8"/>
+      <c r="U97" s="8"/>
+    </row>
+    <row r="98" spans="10:21" x14ac:dyDescent="0.2">
+      <c r="J98" s="8"/>
+      <c r="K98" s="13"/>
+      <c r="L98" s="8"/>
+      <c r="M98" s="8"/>
+      <c r="T98" s="8"/>
+      <c r="U98" s="8"/>
+    </row>
+    <row r="99" spans="10:21" x14ac:dyDescent="0.2">
+      <c r="J99" s="8"/>
+      <c r="K99" s="13"/>
+      <c r="L99" s="8"/>
+      <c r="M99" s="8"/>
+      <c r="T99" s="8"/>
+      <c r="U99" s="8"/>
+    </row>
+    <row r="100" spans="10:21" x14ac:dyDescent="0.2">
+      <c r="J100" s="8"/>
+      <c r="K100" s="13"/>
+      <c r="L100" s="8"/>
+      <c r="M100" s="8"/>
+      <c r="T100" s="8"/>
+      <c r="U100" s="8"/>
+    </row>
+    <row r="101" spans="10:21" x14ac:dyDescent="0.2">
+      <c r="J101" s="8"/>
+      <c r="K101" s="13"/>
+      <c r="L101" s="8"/>
+      <c r="M101" s="8"/>
+      <c r="T101" s="8"/>
+      <c r="U101" s="8"/>
+    </row>
+    <row r="102" spans="10:21" x14ac:dyDescent="0.2">
+      <c r="J102" s="8"/>
+      <c r="K102" s="13"/>
+      <c r="L102" s="8"/>
+      <c r="M102" s="8"/>
+      <c r="T102" s="8"/>
+      <c r="U102" s="8"/>
+    </row>
+    <row r="103" spans="10:21" x14ac:dyDescent="0.2">
+      <c r="J103" s="8"/>
+      <c r="K103" s="13"/>
+      <c r="L103" s="8"/>
+      <c r="M103" s="8"/>
+      <c r="T103" s="8"/>
+      <c r="U103" s="8"/>
+    </row>
+    <row r="104" spans="10:21" x14ac:dyDescent="0.2">
+      <c r="J104" s="8"/>
+      <c r="K104" s="13"/>
+      <c r="L104" s="8"/>
+      <c r="M104" s="8"/>
+      <c r="T104" s="8"/>
+      <c r="U104" s="8"/>
+    </row>
+    <row r="105" spans="10:21" x14ac:dyDescent="0.2">
+      <c r="U105" s="8"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFE45952-4322-AA4F-9CCB-9882CE90A4DB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView zoomScale="194" zoomScaleNormal="194" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="31.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="31.1640625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="34.6640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="31.5" style="4" customWidth="1"/>
+    <col min="4" max="4" width="64.5" style="4" customWidth="1"/>
+    <col min="5" max="16384" width="8.5" style="4"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>26</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/metadata_templates/HP_AV_complex_metadata_template.xlsx
+++ b/metadata_templates/HP_AV_complex_metadata_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelbolam/Documents/GitHub/MAD_Islandora_Metadata/islandora_metadata/metadata_templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6179F935-1CC2-6745-A862-83468430B883}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FB7E0DC-CDED-F243-AA89-EF05694E0C41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28940" yWindow="-6880" windowWidth="29280" windowHeight="19360" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32360" yWindow="-6780" windowWidth="29280" windowHeight="19360" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Object" sheetId="1" r:id="rId1"/>
@@ -34,9 +34,6 @@
     <t>genre</t>
   </si>
   <si>
-    <t>type</t>
-  </si>
-  <si>
     <t>identifier</t>
   </si>
   <si>
@@ -116,6 +113,9 @@
   </si>
   <si>
     <t>batch</t>
+  </si>
+  <si>
+    <t>type_of_resource</t>
   </si>
 </sst>
 </file>
@@ -622,10 +622,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AEA105"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="192" zoomScaleNormal="192" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="192" zoomScaleNormal="192" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="K1" sqref="K1"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1:C1048576"/>
+      <selection pane="bottomLeft" activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -661,82 +661,82 @@
   <sheetData>
     <row r="1" spans="1:26" s="10" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="N1" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="O1" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="P1" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q1" s="7" t="s">
-        <v>16</v>
-      </c>
       <c r="R1" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="S1" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="T1" s="7" t="s">
         <v>1</v>
       </c>
       <c r="U1" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="V1" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="W1" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X1" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Y1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z1" s="5" t="s">
         <v>28</v>
-      </c>
-      <c r="Z1" s="5" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.2">
@@ -1592,16 +1592,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
